--- a/medicine/Sexualité et sexologie/Exhibition_sexuelle/Exhibition_sexuelle.xlsx
+++ b/medicine/Sexualité et sexologie/Exhibition_sexuelle/Exhibition_sexuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exhibition sexuelle est le fait d'exhiber ses organes génitaux ou d'exécuter un acte sexuel  à la vue d'autrui, notamment dans un lieu public, quoique certains pays peuvent ne pas retenir le critère du lieu public. 
 </t>
@@ -513,13 +525,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Droit canadien
-En droit canadien, l'exhibitionnisme est visé par l'art. 173 (2) du Code criminel[1].
+          <t>Droit canadien</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En droit canadien, l'exhibitionnisme est visé par l'art. 173 (2) du Code criminel.
 « Exhibitionnisme
 (2) Toute personne qui, en quelque lieu que ce soit, à des fins d’ordre sexuel, exhibe ses organes génitaux devant une personne âgée de moins de seize ans est coupable :
 a) soit d’un acte criminel passible d’un emprisonnement maximal de deux ans, la peine minimale étant de quatre-vingt-dix jours;
 b) soit d’une infraction punissable sur déclaration de culpabilité par procédure sommaire et passible d’un emprisonnement maximal de six mois, la peine minimale étant de trente jours. »
-Le Code criminel prévoit une infraction distincte de nudité à l'article 174 C.cr. lorsque cela concerne la nudité dans un endroit public[2].
+Le Code criminel prévoit une infraction distincte de nudité à l'article 174 C.cr. lorsque cela concerne la nudité dans un endroit public.
 </t>
         </is>
       </c>
